--- a/data/import_excel/定量-明细表SR数据批量粘贴导入E.xlsx
+++ b/data/import_excel/定量-明细表SR数据批量粘贴导入E.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="9240" yWindow="4485" windowWidth="22890" windowHeight="12060" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="明细表-SR导入" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -460,17 +460,18 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" activeCellId="1" sqref="D2 C6"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col width="31.875" customWidth="1" style="8" min="1" max="1"/>
     <col width="41.5" customWidth="1" style="4" min="2" max="2"/>
-    <col width="15.625" customWidth="1" style="3" min="3" max="4"/>
+    <col width="15.625" customWidth="1" style="3" min="3" max="3"/>
+    <col width="27.625" customWidth="1" style="3" min="4" max="4"/>
     <col width="15.625" customWidth="1" style="4" min="5" max="6"/>
-    <col width="9" customWidth="1" style="4" min="7" max="7"/>
-    <col width="9" customWidth="1" style="4" min="8" max="16384"/>
+    <col width="9" customWidth="1" style="4" min="7" max="11"/>
+    <col width="9" customWidth="1" style="4" min="12" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -506,9 +507,9 @@
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1" s="9">
-      <c r="A2" s="6" t="inlineStr">
-        <is>
-          <t>FJ2308110001</t>
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>FJ2308240007</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -516,30 +517,31 @@
           <t>4.400</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>102.50</t>
-        </is>
-      </c>
-      <c r="D2" s="3">
-        <f>B2*C2</f>
-        <v/>
+      <c r="C2" s="7" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D2" s="7" t="inlineStr">
+        <is>
+          <t>101.16</t>
+        </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>1.034</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>96.69</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" s="9">
-      <c r="A3" s="6" t="inlineStr">
-        <is>
-          <t>FJ2304210142</t>
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>FJ2308240008</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -547,30 +549,31 @@
           <t>4.460</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>30.00</t>
-        </is>
-      </c>
-      <c r="D3" s="3">
-        <f>B3*C3</f>
-        <v/>
+      <c r="C3" s="7" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D3" s="7" t="inlineStr">
+        <is>
+          <t>101.16</t>
+        </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>37.00</t>
+          <t>1.034</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>23.42</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="9">
-      <c r="A4" s="6" t="inlineStr">
-        <is>
-          <t>FJ2304210143</t>
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>FJ2304030004</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -600,9 +603,9 @@
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" s="9">
-      <c r="A5" s="6" t="inlineStr">
-        <is>
-          <t>FJ2304210144</t>
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>FJ2304030005</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
@@ -634,7 +637,7 @@
     <row r="6" ht="15" customHeight="1" s="9">
       <c r="A6" s="6" t="inlineStr">
         <is>
-          <t>FJ2304210145</t>
+          <t>FJ2304060003</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
@@ -666,7 +669,7 @@
     <row r="7" ht="15" customHeight="1" s="9">
       <c r="A7" s="6" t="inlineStr">
         <is>
-          <t>FJ2304210146</t>
+          <t>FJ2304060004</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
@@ -698,7 +701,7 @@
     <row r="8" ht="15" customHeight="1" s="9">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>FJ2304210147</t>
+          <t>FJ2304210073</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -730,7 +733,7 @@
     <row r="9" ht="15" customHeight="1" s="9">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>FJ2304210148</t>
+          <t>FJ2308240007</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
@@ -762,7 +765,7 @@
     <row r="10" ht="15" customHeight="1" s="9">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>FJ2012230017</t>
+          <t>FJ2308240008</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
@@ -794,7 +797,7 @@
     <row r="11" ht="15" customHeight="1" s="9">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>FJ2012230018</t>
+          <t>AP2308230028</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
@@ -826,7 +829,7 @@
     <row r="12" ht="15" customHeight="1" s="9">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>FJ2012230019</t>
+          <t>AP2308230029</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
@@ -858,7 +861,7 @@
     <row r="13" ht="15" customHeight="1" s="9">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>FJ2012230020</t>
+          <t>AP2308230030</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
@@ -890,7 +893,7 @@
     <row r="14" ht="15" customHeight="1" s="9">
       <c r="A14" s="6" t="inlineStr">
         <is>
-          <t>FJ2012230021</t>
+          <t>AP2308230031</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
@@ -922,7 +925,7 @@
     <row r="15" ht="15" customHeight="1" s="9">
       <c r="A15" s="6" t="inlineStr">
         <is>
-          <t>FJ2012230022</t>
+          <t>AP2308230032</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
@@ -952,11 +955,7 @@
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="9">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>FJ2012230023</t>
-        </is>
-      </c>
+      <c r="A16" s="6" t="n"/>
       <c r="B16" s="1" t="inlineStr">
         <is>
           <t>5.74</t>
@@ -984,11 +983,7 @@
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="9">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>FJ2012230024</t>
-        </is>
-      </c>
+      <c r="A17" s="6" t="n"/>
       <c r="B17" s="1" t="inlineStr">
         <is>
           <t>5.75</t>
@@ -1016,11 +1011,7 @@
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" s="9">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>FJ2012230025</t>
-        </is>
-      </c>
+      <c r="A18" s="6" t="n"/>
       <c r="B18" s="1" t="inlineStr">
         <is>
           <t>5.76</t>
@@ -1048,11 +1039,7 @@
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" s="9">
-      <c r="A19" s="6" t="inlineStr">
-        <is>
-          <t>FJ2012230026</t>
-        </is>
-      </c>
+      <c r="A19" s="6" t="n"/>
       <c r="B19" s="1" t="inlineStr">
         <is>
           <t>5.77</t>
@@ -1080,11 +1067,7 @@
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" s="9">
-      <c r="A20" s="6" t="inlineStr">
-        <is>
-          <t>FJ2012230027</t>
-        </is>
-      </c>
+      <c r="A20" s="6" t="n"/>
       <c r="B20" s="1" t="inlineStr">
         <is>
           <t>5.78</t>
@@ -1112,11 +1095,7 @@
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" s="9">
-      <c r="A21" s="6" t="inlineStr">
-        <is>
-          <t>FJ2012230028</t>
-        </is>
-      </c>
+      <c r="A21" s="6" t="n"/>
       <c r="B21" s="1" t="inlineStr">
         <is>
           <t>5.79</t>
@@ -1144,11 +1123,7 @@
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" s="9">
-      <c r="A22" s="6" t="inlineStr">
-        <is>
-          <t>FJ2012230029</t>
-        </is>
-      </c>
+      <c r="A22" s="6" t="n"/>
       <c r="B22" s="1" t="inlineStr">
         <is>
           <t>5.80</t>
@@ -1176,11 +1151,7 @@
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" s="9">
-      <c r="A23" s="6" t="inlineStr">
-        <is>
-          <t>FJ2012230030</t>
-        </is>
-      </c>
+      <c r="A23" s="6" t="n"/>
       <c r="B23" s="1" t="inlineStr">
         <is>
           <t>5.81</t>
@@ -1208,11 +1179,7 @@
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" s="9">
-      <c r="A24" s="6" t="inlineStr">
-        <is>
-          <t>FJ2012230031</t>
-        </is>
-      </c>
+      <c r="A24" s="6" t="n"/>
       <c r="B24" s="1" t="inlineStr">
         <is>
           <t>5.82</t>
@@ -1240,11 +1207,7 @@
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" s="9">
-      <c r="A25" s="6" t="inlineStr">
-        <is>
-          <t>FJ2012230032</t>
-        </is>
-      </c>
+      <c r="A25" s="6" t="n"/>
       <c r="B25" s="1" t="inlineStr">
         <is>
           <t>5.83</t>
@@ -1272,11 +1235,7 @@
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" s="9">
-      <c r="A26" s="6" t="inlineStr">
-        <is>
-          <t>FJ2012230033</t>
-        </is>
-      </c>
+      <c r="A26" s="6" t="n"/>
       <c r="B26" s="1" t="inlineStr">
         <is>
           <t>5.84</t>
@@ -1304,11 +1263,7 @@
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" s="9">
-      <c r="A27" s="6" t="inlineStr">
-        <is>
-          <t>FJ2012230034</t>
-        </is>
-      </c>
+      <c r="A27" s="6" t="n"/>
       <c r="B27" s="1" t="inlineStr">
         <is>
           <t>5.85</t>

--- a/data/import_excel/定量-明细表SR数据批量粘贴导入E.xlsx
+++ b/data/import_excel/定量-明细表SR数据批量粘贴导入E.xlsx
@@ -519,7 +519,7 @@
     <row r="2" ht="16.5" customHeight="1" s="10">
       <c r="A2" s="9" t="inlineStr">
         <is>
-          <t>FJ2309060017</t>
+          <t>AP2309080001</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -551,7 +551,7 @@
     <row r="3" ht="15" customHeight="1" s="10">
       <c r="A3" s="9" t="inlineStr">
         <is>
-          <t>FJ2308280012</t>
+          <t>AP2309080004</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -583,7 +583,7 @@
     <row r="4" ht="15" customHeight="1" s="10">
       <c r="A4" s="9" t="inlineStr">
         <is>
-          <t>FJ2308280013</t>
+          <t>AP2309080002</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -615,7 +615,7 @@
     <row r="5" ht="15" customHeight="1" s="10">
       <c r="A5" s="9" t="inlineStr">
         <is>
-          <t>FJ2308280014</t>
+          <t>AP2309080003</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">

--- a/data/import_excel/定量-明细表SR数据批量粘贴导入E.xlsx
+++ b/data/import_excel/定量-明细表SR数据批量粘贴导入E.xlsx
@@ -519,7 +519,7 @@
     <row r="2" ht="16.5" customHeight="1" s="10">
       <c r="A2" s="9" t="inlineStr">
         <is>
-          <t>AP2309080001</t>
+          <t>AP2309080014</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -551,7 +551,7 @@
     <row r="3" ht="15" customHeight="1" s="10">
       <c r="A3" s="9" t="inlineStr">
         <is>
-          <t>AP2309080004</t>
+          <t>AP2309080015</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -583,7 +583,7 @@
     <row r="4" ht="15" customHeight="1" s="10">
       <c r="A4" s="9" t="inlineStr">
         <is>
-          <t>AP2309080002</t>
+          <t>AP2309080016</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -615,7 +615,7 @@
     <row r="5" ht="15" customHeight="1" s="10">
       <c r="A5" s="9" t="inlineStr">
         <is>
-          <t>AP2309080003</t>
+          <t>AP2309080017</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">

--- a/data/import_excel/定量-明细表SR数据批量粘贴导入E.xlsx
+++ b/data/import_excel/定量-明细表SR数据批量粘贴导入E.xlsx
@@ -519,7 +519,7 @@
     <row r="2" ht="16.5" customHeight="1" s="10">
       <c r="A2" s="9" t="inlineStr">
         <is>
-          <t>AP2309080014</t>
+          <t>AP2309110001</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -551,7 +551,7 @@
     <row r="3" ht="15" customHeight="1" s="10">
       <c r="A3" s="9" t="inlineStr">
         <is>
-          <t>AP2309080015</t>
+          <t>AP2309110002</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -583,7 +583,7 @@
     <row r="4" ht="15" customHeight="1" s="10">
       <c r="A4" s="9" t="inlineStr">
         <is>
-          <t>AP2309080016</t>
+          <t>AP2309110003</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -615,7 +615,7 @@
     <row r="5" ht="15" customHeight="1" s="10">
       <c r="A5" s="9" t="inlineStr">
         <is>
-          <t>AP2309080017</t>
+          <t>AP2309110004</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">

--- a/data/import_excel/定量-明细表SR数据批量粘贴导入E.xlsx
+++ b/data/import_excel/定量-明细表SR数据批量粘贴导入E.xlsx
@@ -519,7 +519,7 @@
     <row r="2" ht="16.5" customHeight="1" s="10">
       <c r="A2" s="9" t="inlineStr">
         <is>
-          <t>AP2309110001</t>
+          <t>AP2309120006</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -551,7 +551,7 @@
     <row r="3" ht="15" customHeight="1" s="10">
       <c r="A3" s="9" t="inlineStr">
         <is>
-          <t>AP2309110002</t>
+          <t>AP2309120007</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -583,7 +583,7 @@
     <row r="4" ht="15" customHeight="1" s="10">
       <c r="A4" s="9" t="inlineStr">
         <is>
-          <t>AP2309110003</t>
+          <t>AP2309120008</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -615,7 +615,7 @@
     <row r="5" ht="15" customHeight="1" s="10">
       <c r="A5" s="9" t="inlineStr">
         <is>
-          <t>AP2309110004</t>
+          <t>AP2309120005</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">

--- a/data/import_excel/定量-明细表SR数据批量粘贴导入E.xlsx
+++ b/data/import_excel/定量-明细表SR数据批量粘贴导入E.xlsx
@@ -519,7 +519,7 @@
     <row r="2" ht="16.5" customHeight="1" s="10">
       <c r="A2" s="9" t="inlineStr">
         <is>
-          <t>AP2309120006</t>
+          <t>AP2309150001</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -551,7 +551,7 @@
     <row r="3" ht="15" customHeight="1" s="10">
       <c r="A3" s="9" t="inlineStr">
         <is>
-          <t>AP2309120007</t>
+          <t>AP2309150002</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -583,7 +583,7 @@
     <row r="4" ht="15" customHeight="1" s="10">
       <c r="A4" s="9" t="inlineStr">
         <is>
-          <t>AP2309120008</t>
+          <t>AP2309150003</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -615,7 +615,7 @@
     <row r="5" ht="15" customHeight="1" s="10">
       <c r="A5" s="9" t="inlineStr">
         <is>
-          <t>AP2309120005</t>
+          <t>AP2309150004</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">

--- a/data/import_excel/定量-明细表SR数据批量粘贴导入E.xlsx
+++ b/data/import_excel/定量-明细表SR数据批量粘贴导入E.xlsx
@@ -519,7 +519,7 @@
     <row r="2" ht="16.5" customHeight="1" s="10">
       <c r="A2" s="9" t="inlineStr">
         <is>
-          <t>AP2309150001</t>
+          <t>AP2309180004</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -551,7 +551,7 @@
     <row r="3" ht="15" customHeight="1" s="10">
       <c r="A3" s="9" t="inlineStr">
         <is>
-          <t>AP2309150002</t>
+          <t>AP2309180005</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -583,7 +583,7 @@
     <row r="4" ht="15" customHeight="1" s="10">
       <c r="A4" s="9" t="inlineStr">
         <is>
-          <t>AP2309150003</t>
+          <t>AP2309180006</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -615,7 +615,7 @@
     <row r="5" ht="15" customHeight="1" s="10">
       <c r="A5" s="9" t="inlineStr">
         <is>
-          <t>AP2309150004</t>
+          <t>AP2309180007</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">

--- a/data/import_excel/定量-明细表SR数据批量粘贴导入E.xlsx
+++ b/data/import_excel/定量-明细表SR数据批量粘贴导入E.xlsx
@@ -519,7 +519,7 @@
     <row r="2" ht="16.5" customHeight="1" s="10">
       <c r="A2" s="9" t="inlineStr">
         <is>
-          <t>AP2309080001</t>
+          <t>FJ2309220010</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -551,7 +551,7 @@
     <row r="3" ht="15" customHeight="1" s="10">
       <c r="A3" s="9" t="inlineStr">
         <is>
-          <t>AP2309080004</t>
+          <t>FJ2309220011</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">

--- a/data/import_excel/定量-明细表SR数据批量粘贴导入E.xlsx
+++ b/data/import_excel/定量-明细表SR数据批量粘贴导入E.xlsx
@@ -519,7 +519,7 @@
     <row r="2" ht="16.5" customHeight="1" s="10">
       <c r="A2" s="9" t="inlineStr">
         <is>
-          <t>FJ2309220010</t>
+          <t>AP2401150003</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -551,7 +551,7 @@
     <row r="3" ht="15" customHeight="1" s="10">
       <c r="A3" s="9" t="inlineStr">
         <is>
-          <t>FJ2309220011</t>
+          <t>AP2401150004</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -583,7 +583,7 @@
     <row r="4" ht="15" customHeight="1" s="10">
       <c r="A4" s="9" t="inlineStr">
         <is>
-          <t>AP2309080002</t>
+          <t>AP2401150002</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -615,7 +615,7 @@
     <row r="5" ht="15" customHeight="1" s="10">
       <c r="A5" s="9" t="inlineStr">
         <is>
-          <t>AP2309080003</t>
+          <t>AP2401150001</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">

--- a/data/import_excel/定量-明细表SR数据批量粘贴导入E.xlsx
+++ b/data/import_excel/定量-明细表SR数据批量粘贴导入E.xlsx
@@ -519,7 +519,7 @@
     <row r="2" ht="16.5" customHeight="1" s="10">
       <c r="A2" s="9" t="inlineStr">
         <is>
-          <t>AP2401150003</t>
+          <t>AP2310270021</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -551,7 +551,7 @@
     <row r="3" ht="15" customHeight="1" s="10">
       <c r="A3" s="9" t="inlineStr">
         <is>
-          <t>AP2401150004</t>
+          <t>AP2310270023</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -583,7 +583,7 @@
     <row r="4" ht="15" customHeight="1" s="10">
       <c r="A4" s="9" t="inlineStr">
         <is>
-          <t>AP2401150002</t>
+          <t>AP2310270024</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -615,7 +615,7 @@
     <row r="5" ht="15" customHeight="1" s="10">
       <c r="A5" s="9" t="inlineStr">
         <is>
-          <t>AP2401150001</t>
+          <t>AP2310270022</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">

--- a/data/import_excel/定量-明细表SR数据批量粘贴导入E.xlsx
+++ b/data/import_excel/定量-明细表SR数据批量粘贴导入E.xlsx
@@ -519,7 +519,7 @@
     <row r="2" ht="16.5" customHeight="1" s="10">
       <c r="A2" s="9" t="inlineStr">
         <is>
-          <t>AP2310270021</t>
+          <t>AP2401160004</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -551,7 +551,7 @@
     <row r="3" ht="15" customHeight="1" s="10">
       <c r="A3" s="9" t="inlineStr">
         <is>
-          <t>AP2310270023</t>
+          <t>AP2401160001</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -583,7 +583,7 @@
     <row r="4" ht="15" customHeight="1" s="10">
       <c r="A4" s="9" t="inlineStr">
         <is>
-          <t>AP2310270024</t>
+          <t>AP2401160002</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -615,7 +615,7 @@
     <row r="5" ht="15" customHeight="1" s="10">
       <c r="A5" s="9" t="inlineStr">
         <is>
-          <t>AP2310270022</t>
+          <t>AP2401160003</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">

--- a/data/import_excel/定量-明细表SR数据批量粘贴导入E.xlsx
+++ b/data/import_excel/定量-明细表SR数据批量粘贴导入E.xlsx
@@ -519,7 +519,7 @@
     <row r="2" ht="16.5" customHeight="1" s="10">
       <c r="A2" s="9" t="inlineStr">
         <is>
-          <t>AP2401160004</t>
+          <t>AP2404290052</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -551,7 +551,7 @@
     <row r="3" ht="15" customHeight="1" s="10">
       <c r="A3" s="9" t="inlineStr">
         <is>
-          <t>AP2401160001</t>
+          <t>AP2404290053</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -583,7 +583,7 @@
     <row r="4" ht="15" customHeight="1" s="10">
       <c r="A4" s="9" t="inlineStr">
         <is>
-          <t>AP2401160002</t>
+          <t>AP2404290050</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -615,7 +615,7 @@
     <row r="5" ht="15" customHeight="1" s="10">
       <c r="A5" s="9" t="inlineStr">
         <is>
-          <t>AP2401160003</t>
+          <t>AP2404290051</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
@@ -647,7 +647,7 @@
     <row r="6" ht="15" customHeight="1" s="10">
       <c r="A6" s="9" t="inlineStr">
         <is>
-          <t>FJ2308280015</t>
+          <t>AP2404120019</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">

--- a/data/import_excel/定量-明细表SR数据批量粘贴导入E.xlsx
+++ b/data/import_excel/定量-明细表SR数据批量粘贴导入E.xlsx
@@ -519,7 +519,7 @@
     <row r="2" ht="16.5" customHeight="1" s="10">
       <c r="A2" s="9" t="inlineStr">
         <is>
-          <t>AP2404290052</t>
+          <t>AP2405210003</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -551,7 +551,7 @@
     <row r="3" ht="15" customHeight="1" s="10">
       <c r="A3" s="9" t="inlineStr">
         <is>
-          <t>AP2404290053</t>
+          <t>AP2405210004</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -583,7 +583,7 @@
     <row r="4" ht="15" customHeight="1" s="10">
       <c r="A4" s="9" t="inlineStr">
         <is>
-          <t>AP2404290050</t>
+          <t>AP2405210001</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -615,7 +615,7 @@
     <row r="5" ht="15" customHeight="1" s="10">
       <c r="A5" s="9" t="inlineStr">
         <is>
-          <t>AP2404290051</t>
+          <t>AP2405210002</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
